--- a/web/static/assets/data/feurst_db.xlsx
+++ b/web/static/assets/data/feurst_db.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10699" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10699" uniqueCount="1366">
   <si>
     <t xml:space="preserve">TYPE DE MACHINE</t>
   </si>
@@ -3416,307 +3416,310 @@
     <t xml:space="preserve">TKN10 1560 STD</t>
   </si>
   <si>
+    <t xml:space="preserve">SEMI-DELTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 240-60 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 240-60 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN11 1560 A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN11 PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN11 CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN11 SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TK WH 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTG 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN11 1560 STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN11 1570 A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 245-70 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN11 1570 STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 250-70 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 250-70 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 280-70 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 280-70 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 280-70 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 320-70 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 320-70 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 320-70 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN13 1570 A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN13 PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN13 CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN13 SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TK OD 13-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1U0740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTG 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN13 1570 STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN13 1580 A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN13 1590 A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 245-90 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN13 1590 STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 250-90 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 250-90 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 280-90 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 280-90 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 280-90 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 320-90 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 320-90 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 320-90 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 360-90 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 360-90 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 360-90 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN15 1590 A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN15 PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN15 CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN15 SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTG 350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 345-100 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 345-100 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 345-100 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN15 15100 A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH 100-140 AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH 100-140 CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN17 15100 A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN17 PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN17 CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN17 SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TK OD 17-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TK WH 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN17 15120 A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 380-120 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 380-120 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 380-120 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN19 15120 A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN19 PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN19 CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN19 SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN19 15140 A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 420-140 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 420-140 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH EXC 420-140 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE DE LAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOUCLIER A SOUDER DROIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOUCLIER A CLAVETER DROIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK1 1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK2 1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK3 1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPF265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK4 1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK5 NS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK5 1035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPF300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK7 1040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK9 1045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN10 1850 A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN10 1860 A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN11 1860 A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB60-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB60-70 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB60-70 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB60-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB60-200 R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB60-200 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB60-250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB60-300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB60-350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKN11 1870 A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB70-250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKSH LOAD 370 70 C</t>
+  </si>
+  <si>
     <t xml:space="preserve">DELTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 240-60 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 240-60 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN11 1560 A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN11 PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN11 CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN11 SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TK WH 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTG 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN11 1560 STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN11 1570 A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 245-70 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN11 1570 STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 250-70 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 250-70 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 280-70 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 280-70 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 280-70 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 320-70 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 320-70 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 320-70 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN13 1570 A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN13 PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN13 CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN13 SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TK OD 13-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1U0740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTG 250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN13 1570 STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN13 1580 A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN13 1590 A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 245-90 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN13 1590 STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 250-90 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 250-90 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 280-90 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 280-90 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 280-90 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 320-90 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 320-90 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 320-90 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 360-90 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 360-90 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 360-90 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN15 1590 A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN15 PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN15 CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN15 SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTG 350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 345-100 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 345-100 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 345-100 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN15 15100 A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH 100-140 AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH 100-140 CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN17 15100 A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN17 PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN17 CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN17 SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TK OD 17-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TK WH 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN17 15120 A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 380-120 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 380-120 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 380-120 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN19 15120 A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN19 PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN19 CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN19 SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN19 15140 A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 420-140 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 420-140 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH EXC 420-140 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE DE LAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOUCLIER A SOUDER DROIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOUCLIER A CLAVETER DROIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK1 1020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK2 1025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK3 1025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPF265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK4 1030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK5 NS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK5 1035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPF300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK7 1040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK9 1045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN10 1850 A16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN10 1860 A16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN11 1860 A16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB60-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB60-70 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB60-70 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB60-200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB60-200 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB60-200 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB60-250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB60-300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB60-350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKN11 1870 A16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB70-250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKSH LOAD 370 70 C</t>
   </si>
   <si>
     <t xml:space="preserve">TKSH LOAD 370 70 R</t>
@@ -4605,9 +4608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>543960</xdr:colOff>
+      <xdr:colOff>543600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>338400</xdr:rowOff>
+      <xdr:rowOff>338040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4621,7 +4624,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6580080" y="35280"/>
-          <a:ext cx="293400" cy="303120"/>
+          <a:ext cx="293040" cy="302760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4642,9 +4645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>559440</xdr:colOff>
+      <xdr:colOff>559080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>295560</xdr:rowOff>
+      <xdr:rowOff>295200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4658,7 +4661,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8191800" y="21240"/>
-          <a:ext cx="312480" cy="274320"/>
+          <a:ext cx="312120" cy="273960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4679,9 +4682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>739800</xdr:colOff>
+      <xdr:colOff>739440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>268560</xdr:rowOff>
+      <xdr:rowOff>268200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4695,7 +4698,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7240680" y="70200"/>
-          <a:ext cx="636480" cy="198360"/>
+          <a:ext cx="636120" cy="198000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4710,15 +4713,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>479520</xdr:rowOff>
+      <xdr:colOff>472320</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>428040</xdr:colOff>
+      <xdr:colOff>729000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4731,8 +4734,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="7153200">
-          <a:off x="6141600" y="414000"/>
-          <a:ext cx="288720" cy="257040"/>
+          <a:off x="6484680" y="464040"/>
+          <a:ext cx="256680" cy="288360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4747,15 +4750,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>591480</xdr:colOff>
+      <xdr:colOff>662400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>662400</xdr:colOff>
+      <xdr:colOff>732960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4764,8 +4767,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5087880" y="458280"/>
-          <a:ext cx="70920" cy="65520"/>
+          <a:off x="5159160" y="524160"/>
+          <a:ext cx="70560" cy="65160"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -4797,7 +4800,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>188640</xdr:colOff>
+      <xdr:colOff>188280</xdr:colOff>
       <xdr:row>585</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
@@ -4811,7 +4814,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="918720" y="108429120"/>
-          <a:ext cx="1368360" cy="360"/>
+          <a:ext cx="1368000" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4863,7 +4866,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>446040</xdr:colOff>
+      <xdr:colOff>445680</xdr:colOff>
       <xdr:row>585</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
@@ -4875,7 +4878,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1823760" y="108429120"/>
-          <a:ext cx="1951920" cy="360"/>
+          <a:ext cx="1951560" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4927,7 +4930,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>188640</xdr:colOff>
+      <xdr:colOff>188280</xdr:colOff>
       <xdr:row>584</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
@@ -4941,7 +4944,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="918720" y="108245160"/>
-          <a:ext cx="1368360" cy="360"/>
+          <a:ext cx="1368000" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4987,15 +4990,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>486720</xdr:rowOff>
+      <xdr:colOff>558720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514440</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5008,8 +5011,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="7153200">
-          <a:off x="7035120" y="421560"/>
-          <a:ext cx="289080" cy="257040"/>
+          <a:off x="7378920" y="471240"/>
+          <a:ext cx="256680" cy="288720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5024,15 +5027,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>587160</xdr:colOff>
+      <xdr:colOff>658080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>658080</xdr:colOff>
+      <xdr:colOff>728640</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5041,8 +5044,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5980320" y="465480"/>
-          <a:ext cx="70920" cy="65520"/>
+          <a:off x="6051600" y="531360"/>
+          <a:ext cx="70560" cy="65160"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -50579,10 +50582,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topRight" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="31" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="10.27"/>
@@ -58239,7 +58242,7 @@
       <selection pane="topRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="31" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="31" width="10.27"/>
@@ -60045,7 +60048,7 @@
         <v>70</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>1127</v>
+        <v>1228</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>1225</v>
@@ -60074,10 +60077,10 @@
         <v>1227</v>
       </c>
       <c r="O39" s="42" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="P39" s="42" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="Q39" s="42" t="s">
         <v>1121</v>
@@ -60109,7 +60112,7 @@
         <v>1071</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>1149</v>
@@ -60130,7 +60133,7 @@
         <v>1120</v>
       </c>
       <c r="N40" s="42" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="O40" s="42"/>
       <c r="P40" s="42"/>
@@ -60159,10 +60162,10 @@
         <v>70</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>1127</v>
+        <v>1228</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F41" s="42" t="s">
         <v>1149</v>
@@ -60183,13 +60186,13 @@
         <v>1120</v>
       </c>
       <c r="N41" s="42" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="O41" s="42" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="P41" s="42" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="Q41" s="42" t="s">
         <v>1121</v>
@@ -60219,7 +60222,7 @@
         <v>1071</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>1149</v>
@@ -60240,7 +60243,7 @@
         <v>1120</v>
       </c>
       <c r="N42" s="42" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
@@ -60269,10 +60272,10 @@
         <v>80</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>1127</v>
+        <v>1228</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="F43" s="42" t="s">
         <v>1149</v>
@@ -60293,13 +60296,13 @@
         <v>1120</v>
       </c>
       <c r="N43" s="42" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="O43" s="42" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="P43" s="42" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="Q43" s="42" t="s">
         <v>1121</v>
@@ -60329,7 +60332,7 @@
         <v>1071</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F44" s="42" t="s">
         <v>1149</v>
@@ -60350,7 +60353,7 @@
         <v>1120</v>
       </c>
       <c r="N44" s="42" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="O44" s="42"/>
       <c r="P44" s="42"/>
@@ -60379,10 +60382,10 @@
         <v>90</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>1127</v>
+        <v>1228</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F45" s="42" t="s">
         <v>1149</v>
@@ -60403,13 +60406,13 @@
         <v>1120</v>
       </c>
       <c r="N45" s="42" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="O45" s="42" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="P45" s="42" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="Q45" s="42" t="s">
         <v>1121</v>
@@ -60439,7 +60442,7 @@
         <v>1071</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="F46" s="42" t="s">
         <v>1172</v>
@@ -60460,7 +60463,7 @@
         <v>1120</v>
       </c>
       <c r="N46" s="42" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="O46" s="42"/>
       <c r="P46" s="42"/>
@@ -60489,10 +60492,10 @@
         <v>90</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>1127</v>
+        <v>1228</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="F47" s="42" t="s">
         <v>1172</v>
@@ -60513,13 +60516,13 @@
         <v>1120</v>
       </c>
       <c r="N47" s="42" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="O47" s="42" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="P47" s="42" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="Q47" s="42" t="s">
         <v>1121</v>
@@ -60549,7 +60552,7 @@
         <v>1071</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="F48" s="42" t="s">
         <v>1172</v>
@@ -60570,7 +60573,7 @@
         <v>1120</v>
       </c>
       <c r="N48" s="42" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="O48" s="42"/>
       <c r="P48" s="42"/>
@@ -60599,10 +60602,10 @@
         <v>100</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>1127</v>
+        <v>1228</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="F49" s="42" t="s">
         <v>1172</v>
@@ -60623,13 +60626,13 @@
         <v>1120</v>
       </c>
       <c r="N49" s="42" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="O49" s="42" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="P49" s="42" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="Q49" s="42" t="s">
         <v>1121</v>
@@ -60659,7 +60662,7 @@
         <v>1071</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="F50" s="42" t="s">
         <v>1183</v>
@@ -60710,7 +60713,7 @@
         <v>1071</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="F51" s="42" t="s">
         <v>1183</v>
@@ -60836,7 +60839,7 @@
       <selection pane="bottomLeft" activeCell="M80" activeCellId="0" sqref="M80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="15.54"/>
@@ -60852,137 +60855,137 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="3" s="34" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I3" s="48" t="s">
         <v>1257</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>1256</v>
-      </c>
       <c r="J3" s="34" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="M3" s="48" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="Q3" s="48" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="U3" s="48" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="X3" s="34" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60990,25 +60993,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="I4" s="49"/>
       <c r="M4" s="50"/>
@@ -61020,37 +61023,37 @@
         <v>20</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="M5" s="50"/>
       <c r="Q5" s="50"/>
@@ -61061,25 +61064,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="I6" s="49"/>
       <c r="M6" s="50"/>
@@ -61094,34 +61097,34 @@
         <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="I7" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="M7" s="50"/>
       <c r="Q7" s="50"/>
@@ -61135,34 +61138,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="I8" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="M8" s="50"/>
       <c r="Q8" s="50"/>
@@ -61173,25 +61176,25 @@
         <v>29</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="I9" s="49"/>
       <c r="M9" s="50"/>
@@ -61203,37 +61206,37 @@
         <v>29</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="M10" s="50"/>
       <c r="Q10" s="50"/>
@@ -61244,25 +61247,25 @@
         <v>29</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="I11" s="49"/>
       <c r="M11" s="50"/>
@@ -61277,22 +61280,22 @@
         <v>14</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="I12" s="49"/>
       <c r="M12" s="50"/>
@@ -61307,34 +61310,34 @@
         <v>14</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="I13" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="M13" s="50"/>
       <c r="Q13" s="50"/>
@@ -61348,34 +61351,34 @@
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="I14" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="M14" s="50"/>
       <c r="Q14" s="50"/>
@@ -61386,37 +61389,37 @@
         <v>33</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="M15" s="50"/>
       <c r="Q15" s="50"/>
@@ -61427,25 +61430,25 @@
         <v>33</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="I16" s="49"/>
       <c r="M16" s="50"/>
@@ -61460,22 +61463,22 @@
         <v>14</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="I17" s="49"/>
       <c r="M17" s="50"/>
@@ -61490,34 +61493,34 @@
         <v>14</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="I18" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="M18" s="50"/>
       <c r="Q18" s="50"/>
@@ -61531,34 +61534,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="I19" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="M19" s="50"/>
       <c r="Q19" s="50"/>
@@ -61572,22 +61575,22 @@
         <v>14</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="I20" s="49"/>
       <c r="M20" s="50"/>
@@ -61599,37 +61602,37 @@
         <v>38</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="M21" s="50"/>
       <c r="Q21" s="50"/>
@@ -61640,25 +61643,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="I22" s="49"/>
       <c r="M22" s="50"/>
@@ -61673,22 +61676,22 @@
         <v>14</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="I23" s="49"/>
       <c r="M23" s="50"/>
@@ -61703,34 +61706,34 @@
         <v>14</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="I24" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="M24" s="50"/>
       <c r="Q24" s="50"/>
@@ -61744,34 +61747,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="I25" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="M25" s="50"/>
       <c r="Q25" s="50"/>
@@ -61785,22 +61788,22 @@
         <v>14</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="I26" s="49"/>
       <c r="M26" s="50"/>
@@ -61812,37 +61815,37 @@
         <v>40</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="I27" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="M27" s="50"/>
       <c r="Q27" s="50"/>
@@ -61853,25 +61856,25 @@
         <v>40</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="I28" s="49"/>
       <c r="M28" s="50"/>
@@ -61886,22 +61889,22 @@
         <v>14</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="I29" s="49"/>
       <c r="M29" s="50"/>
@@ -61916,34 +61919,34 @@
         <v>14</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="I30" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="M30" s="50"/>
       <c r="Q30" s="50"/>
@@ -61957,34 +61960,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="I31" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="M31" s="50"/>
       <c r="Q31" s="50"/>
@@ -61998,22 +62001,22 @@
         <v>14</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="I32" s="49"/>
       <c r="M32" s="50"/>
@@ -62025,37 +62028,37 @@
         <v>75</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="I33" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="M33" s="50"/>
       <c r="Q33" s="50"/>
@@ -62066,25 +62069,25 @@
         <v>75</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="I34" s="49"/>
       <c r="M34" s="50"/>
@@ -62099,22 +62102,22 @@
         <v>14</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="I35" s="49"/>
       <c r="M35" s="50"/>
@@ -62129,34 +62132,34 @@
         <v>14</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="I36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="M36" s="50"/>
       <c r="Q36" s="50"/>
@@ -62170,34 +62173,34 @@
         <v>14</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="I37" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="M37" s="50"/>
       <c r="Q37" s="50"/>
@@ -62211,22 +62214,22 @@
         <v>14</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="I38" s="49"/>
       <c r="M38" s="50"/>
@@ -62238,37 +62241,37 @@
         <v>80</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="I39" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="M39" s="50"/>
       <c r="Q39" s="50"/>
@@ -62279,25 +62282,25 @@
         <v>80</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="I40" s="49"/>
       <c r="M40" s="50"/>
@@ -62312,22 +62315,22 @@
         <v>14</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="I41" s="49"/>
       <c r="M41" s="50"/>
@@ -62343,13 +62346,13 @@
         <v>14</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="M42" s="50"/>
       <c r="Q42" s="50"/>
@@ -62363,34 +62366,34 @@
         <v>14</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="I43" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="M43" s="50"/>
       <c r="Q43" s="50"/>
@@ -62404,34 +62407,34 @@
         <v>14</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="I44" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="M44" s="50"/>
       <c r="Q44" s="50"/>
@@ -62445,22 +62448,22 @@
         <v>14</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="I45" s="49"/>
       <c r="M45" s="50"/>
@@ -62472,37 +62475,37 @@
         <v>82</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="I46" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="M46" s="50"/>
       <c r="Q46" s="50"/>
@@ -62513,25 +62516,25 @@
         <v>82</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="I47" s="49"/>
       <c r="M47" s="50"/>
@@ -62546,22 +62549,22 @@
         <v>14</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="I48" s="49"/>
       <c r="M48" s="50"/>
@@ -62577,13 +62580,13 @@
         <v>14</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="M49" s="50"/>
       <c r="Q49" s="50"/>
@@ -62597,22 +62600,22 @@
         <v>14</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="I50" s="49"/>
       <c r="M50" s="50"/>
@@ -62627,22 +62630,22 @@
         <v>14</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="I51" s="49"/>
       <c r="M51" s="50"/>
@@ -62658,26 +62661,26 @@
         <v>14</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="M52" s="49"/>
       <c r="Q52" s="50" t="s">
         <v>14</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="T52" s="0" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="U52" s="50"/>
     </row>
@@ -62690,13 +62693,13 @@
         <v>14</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="M53" s="50"/>
       <c r="Q53" s="50"/>
@@ -62710,22 +62713,22 @@
         <v>14</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="I54" s="49"/>
       <c r="M54" s="50"/>
@@ -62740,70 +62743,70 @@
         <v>737</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="F55" s="49" t="s">
         <v>737</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="I55" s="49" t="s">
         <v>737</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="M55" s="49" t="s">
         <v>737</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="Q55" s="49" t="s">
         <v>737</v>
       </c>
       <c r="R55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="T55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="U55" s="49" t="s">
         <v>737</v>
       </c>
       <c r="V55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="W55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="X55" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62817,25 +62820,25 @@
         <v>737</v>
       </c>
       <c r="R56" s="0" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="U56" s="49" t="s">
         <v>737</v>
       </c>
       <c r="V56" s="0" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="W56" s="0" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="X56" s="0" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62846,22 +62849,22 @@
         <v>14</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="I57" s="49"/>
       <c r="M57" s="50"/>
@@ -62876,22 +62879,22 @@
         <v>14</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="I58" s="49"/>
       <c r="M58" s="50"/>
@@ -62907,26 +62910,26 @@
         <v>14</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="M59" s="49"/>
       <c r="Q59" s="50" t="s">
         <v>14</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="T59" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="U59" s="50"/>
     </row>
@@ -62939,13 +62942,13 @@
         <v>14</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="M60" s="50"/>
       <c r="Q60" s="50"/>
@@ -62959,22 +62962,22 @@
         <v>14</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="I61" s="49"/>
       <c r="M61" s="50"/>
@@ -62989,70 +62992,70 @@
         <v>737</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="I62" s="49" t="s">
         <v>737</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="M62" s="49" t="s">
         <v>737</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="Q62" s="49" t="s">
         <v>737</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="U62" s="49" t="s">
         <v>737</v>
       </c>
       <c r="V62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="W62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="X62" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63066,25 +63069,25 @@
         <v>737</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="T63" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="U63" s="49" t="s">
         <v>737</v>
       </c>
       <c r="V63" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="W63" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="X63" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63095,22 +63098,22 @@
         <v>14</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="I64" s="49"/>
       <c r="M64" s="50"/>
@@ -63125,22 +63128,22 @@
         <v>14</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="I65" s="49"/>
       <c r="M65" s="50"/>
@@ -63156,26 +63159,26 @@
         <v>14</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="M66" s="49"/>
       <c r="Q66" s="50" t="s">
         <v>14</v>
       </c>
       <c r="R66" s="0" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="T66" s="0" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="U66" s="50"/>
     </row>
@@ -63188,13 +63191,13 @@
         <v>14</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="M67" s="50"/>
       <c r="Q67" s="50"/>
@@ -63208,22 +63211,22 @@
         <v>14</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="I68" s="49"/>
       <c r="M68" s="50"/>
@@ -63240,13 +63243,13 @@
         <v>14</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="Q69" s="50"/>
       <c r="U69" s="50"/>
@@ -63259,70 +63262,70 @@
         <v>737</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="I70" s="49" t="s">
         <v>737</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="M70" s="49" t="s">
         <v>737</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="Q70" s="49" t="s">
         <v>737</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="U70" s="49" t="s">
         <v>737</v>
       </c>
       <c r="V70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="W70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="X70" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63336,25 +63339,25 @@
         <v>737</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="S71" s="0" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="T71" s="0" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="U71" s="49" t="s">
         <v>737</v>
       </c>
       <c r="V71" s="0" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="W71" s="0" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="X71" s="0" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63365,22 +63368,22 @@
         <v>14</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="I72" s="49"/>
       <c r="M72" s="50"/>
@@ -63395,22 +63398,22 @@
         <v>14</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="I73" s="49"/>
       <c r="M73" s="50"/>
@@ -63426,26 +63429,26 @@
         <v>14</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="M74" s="49"/>
       <c r="Q74" s="50" t="s">
         <v>14</v>
       </c>
       <c r="R74" s="0" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="S74" s="0" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="T74" s="0" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="U74" s="50"/>
     </row>
@@ -63458,13 +63461,13 @@
         <v>14</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="M75" s="50"/>
       <c r="Q75" s="50"/>
@@ -63478,22 +63481,22 @@
         <v>14</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="I76" s="49"/>
       <c r="M76" s="50"/>
@@ -63510,13 +63513,13 @@
         <v>14</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="Q77" s="50"/>
       <c r="U77" s="50"/>
@@ -63531,13 +63534,13 @@
         <v>14</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="Q78" s="50"/>
       <c r="U78" s="50"/>
@@ -63550,70 +63553,70 @@
         <v>737</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="I79" s="49" t="s">
         <v>737</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="M79" s="49" t="s">
         <v>737</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="Q79" s="49" t="s">
         <v>737</v>
       </c>
       <c r="R79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="S79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="T79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="U79" s="49" t="s">
         <v>737</v>
       </c>
       <c r="V79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="W79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="X79" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63626,31 +63629,31 @@
         <v>737</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="Q80" s="49" t="s">
         <v>737</v>
       </c>
       <c r="R80" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="S80" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="U80" s="49" t="s">
         <v>737</v>
       </c>
       <c r="V80" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="W80" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="X80" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63661,22 +63664,22 @@
         <v>14</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="I81" s="49"/>
       <c r="M81" s="50"/>
@@ -63691,22 +63694,22 @@
         <v>14</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="I82" s="49"/>
       <c r="M82" s="50"/>
@@ -63722,26 +63725,26 @@
         <v>14</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="M83" s="49"/>
       <c r="Q83" s="50" t="s">
         <v>14</v>
       </c>
       <c r="R83" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="S83" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="T83" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="U83" s="50"/>
     </row>
@@ -63754,13 +63757,13 @@
         <v>14</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="M84" s="50"/>
       <c r="Q84" s="50"/>
@@ -63776,13 +63779,13 @@
         <v>14</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="Q85" s="50"/>
       <c r="U85" s="50"/>
@@ -63797,13 +63800,13 @@
         <v>14</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="Q86" s="50"/>
       <c r="U86" s="50"/>
@@ -63816,96 +63819,96 @@
         <v>737</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="I87" s="49" t="s">
         <v>737</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="M87" s="49" t="s">
         <v>737</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="O87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="Q87" s="49" t="s">
         <v>737</v>
       </c>
       <c r="R87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="S87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="T87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="U87" s="49" t="s">
         <v>737</v>
       </c>
       <c r="V87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="W87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="X87" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B88" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="I88" s="49"/>
       <c r="M88" s="50"/>
@@ -63914,20 +63917,20 @@
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B89" s="49"/>
       <c r="I89" s="49" t="s">
         <v>14</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M89" s="50"/>
       <c r="Q89" s="50"/>
@@ -63935,7 +63938,7 @@
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B90" s="49"/>
       <c r="I90" s="49"/>
@@ -63943,20 +63946,20 @@
         <v>14</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="O90" s="0" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="Q90" s="50"/>
       <c r="U90" s="50"/>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B91" s="49"/>
       <c r="I91" s="49"/>
@@ -63964,13 +63967,13 @@
         <v>14</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="Q91" s="50"/>
       <c r="U91" s="50"/>

--- a/web/static/assets/data/feurst_db.xlsx
+++ b/web/static/assets/data/feurst_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\AA_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A790F396-8DAC-4325-8051-36AC8808E543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E995F43-29A3-44B3-99CD-664CF9ABF2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machines" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10713" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10733" uniqueCount="1367">
   <si>
     <t>TYPE DE MACHINE</t>
   </si>
@@ -51161,7 +51161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
@@ -61097,9 +61097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U83" sqref="U83:X83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62945,7 +62945,18 @@
       <c r="T52" t="s">
         <v>1322</v>
       </c>
-      <c r="U52" s="57"/>
+      <c r="U52" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="V52" t="s">
+        <v>1322</v>
+      </c>
+      <c r="W52" t="s">
+        <v>1322</v>
+      </c>
+      <c r="X52" t="s">
+        <v>1322</v>
+      </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -63194,7 +63205,18 @@
       <c r="T59" t="s">
         <v>1329</v>
       </c>
-      <c r="U59" s="57"/>
+      <c r="U59" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="V59" t="s">
+        <v>1329</v>
+      </c>
+      <c r="W59" t="s">
+        <v>1329</v>
+      </c>
+      <c r="X59" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -63443,7 +63465,18 @@
       <c r="T66" t="s">
         <v>1336</v>
       </c>
-      <c r="U66" s="57"/>
+      <c r="U66" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="V66" t="s">
+        <v>1336</v>
+      </c>
+      <c r="W66" t="s">
+        <v>1336</v>
+      </c>
+      <c r="X66" t="s">
+        <v>1336</v>
+      </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -63713,7 +63746,18 @@
       <c r="T74" t="s">
         <v>1344</v>
       </c>
-      <c r="U74" s="57"/>
+      <c r="U74" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="V74" t="s">
+        <v>1344</v>
+      </c>
+      <c r="W74" t="s">
+        <v>1344</v>
+      </c>
+      <c r="X74" t="s">
+        <v>1344</v>
+      </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -64009,7 +64053,18 @@
       <c r="T83" t="s">
         <v>1353</v>
       </c>
-      <c r="U83" s="57"/>
+      <c r="U83" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="V83" t="s">
+        <v>1353</v>
+      </c>
+      <c r="W83" t="s">
+        <v>1353</v>
+      </c>
+      <c r="X83" t="s">
+        <v>1353</v>
+      </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
